--- a/src/main/resources/excel/프로젝트 템플릿.xlsx
+++ b/src/main/resources/excel/프로젝트 템플릿.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tj-bu-702-12\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tj-bu-702-12\Desktop\SBFMA\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82E5299-267A-4640-9891-E7D324BA97FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307AED42-97C4-49CB-A268-6C0C090E5708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5FD39532-4225-4EAC-8586-6BC58445941D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5FD39532-4225-4EAC-8586-6BC58445941D}"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 정보" sheetId="1" r:id="rId1"/>
     <sheet name="인력관리" sheetId="2" r:id="rId2"/>
-    <sheet name="업무 배정" sheetId="3" r:id="rId3"/>
-    <sheet name="업무관리" sheetId="4" r:id="rId4"/>
+    <sheet name="업무관리" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>프로젝트 기본정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -558,7 +557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AAD63E-0418-4A93-B125-700E28999E08}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -1104,313 +1103,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A04366-96ED-4558-877B-62575CDA5D2D}">
-  <dimension ref="A1:G30"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="7" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2410F9E2-EAB3-4A0D-A7D6-3E7D10859129}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/src/main/resources/excel/프로젝트 템플릿.xlsx
+++ b/src/main/resources/excel/프로젝트 템플릿.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tj-bu-702-12\Desktop\SBFMA\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307AED42-97C4-49CB-A268-6C0C090E5708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D1D8E2-F517-4DC2-B7C8-2AAA3C944047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5FD39532-4225-4EAC-8586-6BC58445941D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5FD39532-4225-4EAC-8586-6BC58445941D}"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 정보" sheetId="1" r:id="rId1"/>
@@ -557,7 +557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AAD63E-0418-4A93-B125-700E28999E08}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -1106,7 +1106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2410F9E2-EAB3-4A0D-A7D6-3E7D10859129}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/src/main/resources/excel/프로젝트 템플릿.xlsx
+++ b/src/main/resources/excel/프로젝트 템플릿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tj-bu-702-12\Desktop\SBFMA\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D1D8E2-F517-4DC2-B7C8-2AAA3C944047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D86F323-C951-4259-8806-2ECC92271E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5FD39532-4225-4EAC-8586-6BC58445941D}"/>
   </bookViews>
@@ -133,7 +133,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>노트</t>
+    <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
